--- a/系统设计尺寸.xlsx
+++ b/系统设计尺寸.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="空冷塔" sheetId="1" r:id="rId1"/>
+    <sheet name="热管" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
@@ -500,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -644,4 +645,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/系统设计尺寸.xlsx
+++ b/系统设计尺寸.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="空冷塔" sheetId="1" r:id="rId1"/>
-    <sheet name="热管" sheetId="2" r:id="rId2"/>
+    <sheet name="乏燃料池" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,12 +128,336 @@
     <t>每排管根数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>乏燃料池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力,Pa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.108+0.012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贮存格架数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个贮存格架中格架单元数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1，m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2，m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5，m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乏燃料池向四周扩展,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆芯燃料组件总数Ncore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原乏燃料池总长Lpool，m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原乏燃料池总宽Wpool，m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原乏燃料池总高Hpool,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现乏燃料池总长Lpool',m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现乏燃料池总宽Wpool',m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现乏燃料池总高Hpool'，m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贮存格架总长度Lrack,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贮存格架总宽度Wrack,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贮存格架总高度(包括基础板）Hrack,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度方向贮存格架与池壁间距Lgap,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度方向贮存格架与池壁间距Wgap,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贮存格架与池底间距Hgap,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活性区高度Hact,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格架单元内横截面积Acell，m^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I区格架单元横截面积Acell1,m^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II区格架单元横截面积Acell2，m^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒束横截面积Arods，m^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导向管和仪表管横截面积Agits,m^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际格架流通面积Afree，m^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格架边孔流通面积Ansh,m^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I类贮存格架单元中心距Pcell1,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II类贮存格架单元中心距Pcell2,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆芯燃料组件总数,Ncore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L9,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x0,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x6,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x9,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x12,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W6,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W7,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W4,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y0,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y1,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y4,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y7,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y10,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度(坐标）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H0,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乏燃料水池向高度方向延伸，m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H4,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z7,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z2,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z3,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z4,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z5,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z6,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1',m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z7',m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z2',m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z3',m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z4',m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z5',m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z6',m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贮存格架总面积，m^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贮存格架单元内部尺寸,m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贮存格架单元面积,m^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贮存格架单元数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贮存格架数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个贮存格架中贮存单元数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +493,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,11 +529,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -499,131 +841,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A3:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M1" sqref="M1:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="0.875" customWidth="1"/>
+    <col min="7" max="12" width="9" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>2.5000000000000001E-2</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.02</v>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>5.0000000000000001E-4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <f>B10/2*3^0.5</f>
+      <c r="B13">
+        <f>B12/2*3^0.5</f>
         <v>4.6765371804359683E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <f>INT(B3/B10)</f>
+      <c r="B16">
+        <f>INT(B5/B12)</f>
         <v>296</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
@@ -649,14 +990,620 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="3.875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="15" max="15" width="23.375" customWidth="1"/>
+    <col min="18" max="18" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>12.7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <f>B6</f>
+        <v>14.7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3">
+        <f>B7</f>
+        <v>8.4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3">
+        <f>B8</f>
+        <v>15.08</v>
+      </c>
+      <c r="O3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3">
+        <f>B10*B11</f>
+        <v>74.044650000000004</v>
+      </c>
+      <c r="W3">
+        <f>17*17</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>6.4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f>B17</f>
+        <v>193</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <f>B10</f>
+        <v>12.31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4">
+        <f>B11</f>
+        <v>6.0149999999999997</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4">
+        <f>(108-12)/1000</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4">
+        <f>224/1000</f>
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>13.08</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <f>(H3-H4)/2</f>
+        <v>1.1949999999999994</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5">
+        <f>(J3-J4)/2</f>
+        <v>1.1925000000000003</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5">
+        <f>B12</f>
+        <v>5.085</v>
+      </c>
+      <c r="O5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5">
+        <f>P4*P4</f>
+        <v>5.0176000000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <f>B3+E3*2</f>
+        <v>14.7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>0.246</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <f>H5</f>
+        <v>1.1949999999999994</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6">
+        <f>J5</f>
+        <v>1.1925000000000003</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6">
+        <f>(B12-B16)/2</f>
+        <v>0.40899999999999981</v>
+      </c>
+      <c r="O6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6">
+        <f>P3/P5</f>
+        <v>1475.6985411352041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <f>B4+E3*2</f>
+        <v>8.4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7">
+        <f>SQRT(E4)*E5</f>
+        <v>3.8620994290670461</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7">
+        <f>H7</f>
+        <v>3.8620994290670461</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7">
+        <f>B16</f>
+        <v>4.2670000000000003</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <f>B5+E7</f>
+        <v>15.08</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8">
+        <f>P6/P7</f>
+        <v>184.46231764190051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>101300</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9">
+        <f>H3</f>
+        <v>14.7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <f>J3</f>
+        <v>8.4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9">
+        <f>L3</f>
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>12.31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <f>H5</f>
+        <v>1.1949999999999994</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10">
+        <f>J5</f>
+        <v>1.1925000000000003</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10">
+        <f>L4</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>6.0149999999999997</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <f>H9-H6</f>
+        <v>13.504999999999999</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11">
+        <f>J3-J6</f>
+        <v>7.2074999999999996</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11">
+        <f>L4+L6</f>
+        <v>0.50499999999999978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>5.085</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <f>H10+(H4-H7)/2</f>
+        <v>5.4189502854664768</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12">
+        <f>J10+(J4-J7)/2</f>
+        <v>2.2689502854664774</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12">
+        <f>L4+L6+L7</f>
+        <v>4.7720000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <f>(B6-B10)/2</f>
+        <v>1.1949999999999994</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13">
+        <f>H12+H7</f>
+        <v>9.2810497145335233</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13">
+        <f>J12+J7</f>
+        <v>6.131049714533523</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13">
+        <f>L4+L5</f>
+        <v>5.181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <f>(B7-B11)/2</f>
+        <v>1.1925000000000003</v>
+      </c>
+      <c r="K14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14">
+        <f>L9-4*0.0254</f>
+        <v>14.978400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>4.2670000000000003</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16">
+        <f>L9-2*0.0254</f>
+        <v>15.029199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>193</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17">
+        <f>L10-0.0254*2</f>
+        <v>4.5200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18">
+        <f>L11-2*0.0254</f>
+        <v>0.45419999999999977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19">
+        <f>L12-2*0.0254</f>
+        <v>4.7212000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>0.05</v>
+      </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20">
+        <f>L13-2*0.0254</f>
+        <v>5.1302000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21">
+        <f>L14-2*0.0254</f>
+        <v>14.9276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>6.0499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>2.8299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="K27">
+        <f>(J4-J7)/2</f>
+        <v>1.0764502854664768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>0.246</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/系统设计尺寸.xlsx
+++ b/系统设计尺寸.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,10 @@
   </si>
   <si>
     <t>每个贮存格架中贮存单元数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乏燃料组件总数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +997,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1334,6 +1338,13 @@
         <f>L4</f>
         <v>9.6000000000000002E-2</v>
       </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10">
+        <f>9*9*3+12*11*4+12*9</f>
+        <v>879</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -1606,5 +1617,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>